--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +55,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>#1001开头塔技能</t>
+  </si>
+  <si>
     <t>子弹射击</t>
   </si>
   <si>
@@ -386,6 +389,27 @@
   </si>
   <si>
     <t>buff,2;buffeffect,30;bufftime,1000;</t>
+  </si>
+  <si>
+    <t>#6001开头玩家技能</t>
+  </si>
+  <si>
+    <t>yunshiskill</t>
+  </si>
+  <si>
+    <t>一个陨石</t>
+  </si>
+  <si>
+    <t>干扰</t>
+  </si>
+  <si>
+    <t>InterferenceTowerSkill</t>
+  </si>
+  <si>
+    <t>干扰一座敌方防御塔</t>
+  </si>
+  <si>
+    <t>time,5000;</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H33"/>
+  <dimension ref="B3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1441,480 +1465,533 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="3:7">
-      <c r="C6">
-        <v>1001</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="3:7">
       <c r="C7">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="3:7">
       <c r="C8">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="3:7">
       <c r="C9">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="3:7">
       <c r="C10">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="3:7">
       <c r="C11">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="3:7">
       <c r="C12">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="3:7">
       <c r="C13">
-        <v>1008</v>
-      </c>
-      <c r="D13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="3:7">
       <c r="C14">
-        <v>1009</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="3:7">
       <c r="C15">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="3:7">
       <c r="C16">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="3:7">
       <c r="C17">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="3:7">
       <c r="C18">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="3:7">
       <c r="C19">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="3:7">
       <c r="C20">
-        <v>1015</v>
-      </c>
-      <c r="D20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="3:7">
       <c r="C21">
-        <v>1016</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="3:7">
       <c r="C22">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
         <v>76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="3:7">
       <c r="C23">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="3:7">
       <c r="C24">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
         <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="3:7">
       <c r="C25">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="3:7">
       <c r="C26">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="3:7">
       <c r="C27">
-        <v>1022</v>
-      </c>
-      <c r="D27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
         <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="3:7">
       <c r="C28">
-        <v>1023</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
         <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="3:7">
       <c r="C29">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
         <v>104</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="3:7">
       <c r="C30">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
         <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="3:7">
       <c r="C31">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
         <v>112</v>
-      </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="3:7">
       <c r="C32">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
         <v>116</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="3:7">
       <c r="C33">
+        <v>1027</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="3:7">
+      <c r="C34">
         <v>1028</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="E34" t="s">
         <v>122</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F34" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36">
+        <v>6001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40">
+        <v>6005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
   <si>
     <t>Id</t>
   </si>
@@ -394,10 +394,52 @@
     <t>#6001开头玩家技能</t>
   </si>
   <si>
-    <t>yunshiskill</t>
-  </si>
-  <si>
-    <t>一个陨石</t>
+    <t>陨石下落</t>
+  </si>
+  <si>
+    <t>MeteoriteSkill</t>
+  </si>
+  <si>
+    <t>召唤陨石落下,对范围内的怪造成伤害</t>
+  </si>
+  <si>
+    <t>time,2000;intervaltime,1000;damagerange,2000;attackdamage,20;chargetime,50000;</t>
+  </si>
+  <si>
+    <t>召唤军队</t>
+  </si>
+  <si>
+    <t>SummonTroopSkill</t>
+  </si>
+  <si>
+    <t>召唤若干单位小兵进行防守,持续20秒;冷却时间50秒;</t>
+  </si>
+  <si>
+    <t>time,20000;hp,30;attackdamage,3;attackinterval,2000;attackrange,1000;speed,400;chargetime,50000;</t>
+  </si>
+  <si>
+    <t>塔加属性</t>
+  </si>
+  <si>
+    <t>TowerAddPropertiesSkill</t>
+  </si>
+  <si>
+    <t>塔的伤害增加百分之30;攻击速度增加百分之20;持续时间10秒,冷却时间50秒;</t>
+  </si>
+  <si>
+    <t>time,10000;attackdamageadd,30;attackspeedadd,20;chargetime,50000;</t>
+  </si>
+  <si>
+    <t>金币增长</t>
+  </si>
+  <si>
+    <t>GetExtraCoinSkill</t>
+  </si>
+  <si>
+    <t>一定时间内,击杀小兵获得的金币+5;持续时间20秒;冷却时间50秒;</t>
+  </si>
+  <si>
+    <t>time,20000;extracoin,5;chargetime,50000;</t>
   </si>
   <si>
     <t>干扰</t>
@@ -406,10 +448,10 @@
     <t>InterferenceTowerSkill</t>
   </si>
   <si>
-    <t>干扰一座敌方防御塔</t>
-  </si>
-  <si>
-    <t>time,5000;</t>
+    <t>干扰一座敌方防御塔,使其不能攻击，持续时间结束后则让其变为正常攻击状态.;充能时间50秒;</t>
+  </si>
+  <si>
+    <t>time,5000;chargetime,50000;</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1436,8 @@
   <sheetPr/>
   <dimension ref="B3:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1951,30 +1993,72 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:7">
       <c r="C36">
         <v>6001</v>
       </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+        <v>128</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
       <c r="C37">
         <v>6002</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
       <c r="C38">
         <v>6003</v>
       </c>
-    </row>
-    <row r="39" spans="3:3">
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
       <c r="C39">
         <v>6004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="3:7">
@@ -1982,16 +2066,16 @@
         <v>6005</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
